--- a/lastDay/merged_trh.xlsx
+++ b/lastDay/merged_trh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mpxuann\HouCanBei\results\scale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mpxuann\HouCanBei\lastDay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B219169-9851-471F-B7ED-F3EC000FD037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3849894-7165-43DD-BEC3-088B525CD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3D492D7E-110E-4089-AB55-3ED6CA0E0227}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>蔡安新</t>
   </si>
@@ -248,6 +248,18 @@
   <si>
     <t>未成年抑郁</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shapePosPrimeIndex</t>
+  </si>
+  <si>
+    <t>shapeNegPrimeIndex</t>
+  </si>
+  <si>
+    <t>emoPosPrimeIndex</t>
+  </si>
+  <si>
+    <t>emoNegPrimeIndex</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -303,12 +315,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF319B62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,12 +371,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F717E-7A7C-4EC1-A6EC-9C7CD085ADAE}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="M1" sqref="M1:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -691,7 +721,7 @@
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -728,10 +758,20 @@
       <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -768,10 +808,20 @@
       <c r="L2" s="6">
         <v>6</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" s="14">
+        <v>172.85499999999999</v>
+      </c>
+      <c r="N2" s="15">
+        <v>-229.91309999999999</v>
+      </c>
+      <c r="O2" s="15">
+        <v>285.55709999999999</v>
+      </c>
+      <c r="P2" s="15">
+        <v>-360.94069999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -808,10 +858,20 @@
       <c r="L3" s="6">
         <v>4</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="14">
+        <v>65.694400000000002</v>
+      </c>
+      <c r="N3" s="15">
+        <v>183.0078</v>
+      </c>
+      <c r="O3" s="15">
+        <v>154.4444</v>
+      </c>
+      <c r="P3" s="15">
+        <v>-86.264300000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -848,10 +908,20 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="14">
+        <v>85.873000000000005</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="O4" s="15">
+        <v>176.7876</v>
+      </c>
+      <c r="P4" s="15">
+        <v>-75.707800000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -888,10 +958,20 @@
       <c r="L5" s="6">
         <v>9</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="14">
+        <v>-47.4636</v>
+      </c>
+      <c r="N5" s="15">
+        <v>-67.387600000000006</v>
+      </c>
+      <c r="O5" s="15">
+        <v>-31.753799999999998</v>
+      </c>
+      <c r="P5" s="15">
+        <v>-65.020899999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -928,10 +1008,20 @@
       <c r="L6" s="6">
         <v>5</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" s="14">
+        <v>66.877600000000001</v>
+      </c>
+      <c r="N6" s="15">
+        <v>-80.349800000000002</v>
+      </c>
+      <c r="O6" s="15">
+        <v>68.988600000000005</v>
+      </c>
+      <c r="P6" s="15">
+        <v>-117.3601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -968,10 +1058,20 @@
       <c r="L7" s="6">
         <v>10</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="14">
+        <v>143.49639999999999</v>
+      </c>
+      <c r="N7" s="15">
+        <v>19.391500000000001</v>
+      </c>
+      <c r="O7" s="15">
+        <v>54.794800000000002</v>
+      </c>
+      <c r="P7" s="15">
+        <v>-11.6713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1008,10 +1108,20 @@
       <c r="L8" s="6">
         <v>8</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="14">
+        <v>118.13639999999999</v>
+      </c>
+      <c r="N8" s="15">
+        <v>-151.2319</v>
+      </c>
+      <c r="O8" s="15">
+        <v>105.3811</v>
+      </c>
+      <c r="P8" s="15">
+        <v>-81.390500000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1048,10 +1158,20 @@
       <c r="L9" s="6">
         <v>5</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="14">
+        <v>107.64230000000001</v>
+      </c>
+      <c r="N9" s="15">
+        <v>-39.406599999999997</v>
+      </c>
+      <c r="O9" s="15">
+        <v>86.53</v>
+      </c>
+      <c r="P9" s="15">
+        <v>-58.902099999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1088,10 +1208,20 @@
       <c r="L10" s="6">
         <v>8</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="14">
+        <v>82.7971</v>
+      </c>
+      <c r="N10" s="15">
+        <v>-70.27</v>
+      </c>
+      <c r="O10" s="15">
+        <v>60.6678</v>
+      </c>
+      <c r="P10" s="15">
+        <v>-33.613399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1128,10 +1258,20 @@
       <c r="L11" s="6">
         <v>6</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="14">
+        <v>-170.48150000000001</v>
+      </c>
+      <c r="N11" s="15">
+        <v>130.72890000000001</v>
+      </c>
+      <c r="O11" s="15">
+        <v>79.217399999999998</v>
+      </c>
+      <c r="P11" s="15">
+        <v>41.410899999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -1168,10 +1308,20 @@
       <c r="L12" s="6">
         <v>32</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="14">
+        <v>243</v>
+      </c>
+      <c r="N12" s="15">
+        <v>-3.1665999999999999</v>
+      </c>
+      <c r="O12" s="15">
+        <v>44.265799999999999</v>
+      </c>
+      <c r="P12" s="15">
+        <v>-306.49349999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1208,10 +1358,20 @@
       <c r="L13" s="6">
         <v>23</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="14">
+        <v>155.1429</v>
+      </c>
+      <c r="N13" s="15">
+        <v>-135.19290000000001</v>
+      </c>
+      <c r="O13" s="15">
+        <v>-223.3706</v>
+      </c>
+      <c r="P13" s="15">
+        <v>104.52800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1248,10 +1408,20 @@
       <c r="L14" s="6">
         <v>22</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="14">
+        <v>54.495699999999999</v>
+      </c>
+      <c r="N14" s="15">
+        <v>104.7513</v>
+      </c>
+      <c r="O14" s="15">
+        <v>-99.312200000000004</v>
+      </c>
+      <c r="P14" s="15">
+        <v>-61.6297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1288,10 +1458,20 @@
       <c r="L15" s="6">
         <v>22</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="14">
+        <v>30</v>
+      </c>
+      <c r="N15" s="15">
+        <v>43.5</v>
+      </c>
+      <c r="O15" s="15">
+        <v>73.573899999999995</v>
+      </c>
+      <c r="P15" s="15">
+        <v>14.7096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -1328,10 +1508,20 @@
       <c r="L16" s="6">
         <v>25</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="M16" s="14">
+        <v>128.52099999999999</v>
+      </c>
+      <c r="N16" s="15">
+        <v>-57.769199999999998</v>
+      </c>
+      <c r="O16" s="15">
+        <v>48.8</v>
+      </c>
+      <c r="P16" s="15">
+        <v>31.636500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1368,10 +1558,20 @@
       <c r="L17" s="6">
         <v>10</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="M17" s="14">
+        <v>155.09520000000001</v>
+      </c>
+      <c r="N17" s="15">
+        <v>-65.148099999999999</v>
+      </c>
+      <c r="O17" s="15">
+        <v>-15.3026</v>
+      </c>
+      <c r="P17" s="15">
+        <v>18.664300000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1408,10 +1608,20 @@
       <c r="L18" s="6">
         <v>23</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="M18" s="14">
+        <v>318.0539</v>
+      </c>
+      <c r="N18" s="15">
+        <v>140.02959999999999</v>
+      </c>
+      <c r="O18" s="15">
+        <v>196.65729999999999</v>
+      </c>
+      <c r="P18" s="15">
+        <v>-139.22730000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
@@ -1448,10 +1658,20 @@
       <c r="L19" s="6">
         <v>7</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="M19" s="14">
+        <v>191.887</v>
+      </c>
+      <c r="N19" s="15">
+        <v>-141.85390000000001</v>
+      </c>
+      <c r="O19" s="15">
+        <v>273.81119999999999</v>
+      </c>
+      <c r="P19" s="15">
+        <v>-106.1713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
@@ -1488,10 +1708,20 @@
       <c r="L20" s="6">
         <v>9</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="M20" s="14">
+        <v>-109.8741</v>
+      </c>
+      <c r="N20" s="15">
+        <v>-263.94049999999999</v>
+      </c>
+      <c r="O20" s="15">
+        <v>272.4957</v>
+      </c>
+      <c r="P20" s="15">
+        <v>-101.3565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
@@ -1528,10 +1758,20 @@
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="M21" s="14">
+        <v>6.3068999999999997</v>
+      </c>
+      <c r="N21" s="15">
+        <v>-56.820099999999996</v>
+      </c>
+      <c r="O21" s="15">
+        <v>-12.7357</v>
+      </c>
+      <c r="P21" s="15">
+        <v>-30.185700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -1568,10 +1808,20 @@
       <c r="L22" s="6">
         <v>9</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="M22" s="14">
+        <v>5.4814999999999996</v>
+      </c>
+      <c r="N22" s="15">
+        <v>-107.46559999999999</v>
+      </c>
+      <c r="O22" s="15">
+        <v>199.8365</v>
+      </c>
+      <c r="P22" s="15">
+        <v>-31.499099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
@@ -1608,10 +1858,20 @@
       <c r="L23" s="6">
         <v>6</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="M23" s="14">
+        <v>176.12139999999999</v>
+      </c>
+      <c r="N23" s="15">
+        <v>-164.2</v>
+      </c>
+      <c r="O23" s="15">
+        <v>-15.7378</v>
+      </c>
+      <c r="P23" s="15">
+        <v>89.867199999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -1648,10 +1908,20 @@
       <c r="L24" s="6">
         <v>13</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="M24" s="14">
+        <v>106.1776</v>
+      </c>
+      <c r="N24" s="15">
+        <v>46.833300000000001</v>
+      </c>
+      <c r="O24" s="15">
+        <v>75.668499999999995</v>
+      </c>
+      <c r="P24" s="15">
+        <v>47.474299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -1688,10 +1958,20 @@
       <c r="L25" s="6">
         <v>13</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="M25" s="14">
+        <v>352.94319999999999</v>
+      </c>
+      <c r="N25" s="15">
+        <v>-119.7409</v>
+      </c>
+      <c r="O25" s="15">
+        <v>173.42959999999999</v>
+      </c>
+      <c r="P25" s="15">
+        <v>-354.81889999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -1728,10 +2008,20 @@
       <c r="L26" s="6">
         <v>9</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="M26" s="14">
+        <v>77.247600000000006</v>
+      </c>
+      <c r="N26" s="15">
+        <v>-71.662899999999993</v>
+      </c>
+      <c r="O26" s="15">
+        <v>65.73</v>
+      </c>
+      <c r="P26" s="15">
+        <v>-94.994799999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
@@ -1768,10 +2058,20 @@
       <c r="L27" s="6">
         <v>9</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="M27" s="14">
+        <v>39.708300000000001</v>
+      </c>
+      <c r="N27" s="15">
+        <v>16.596</v>
+      </c>
+      <c r="O27" s="15">
+        <v>79.188400000000001</v>
+      </c>
+      <c r="P27" s="15">
+        <v>38.409399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -1808,10 +2108,20 @@
       <c r="L28" s="6">
         <v>8</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="M28" s="14">
+        <v>149.42230000000001</v>
+      </c>
+      <c r="N28" s="15">
+        <v>-34.302599999999998</v>
+      </c>
+      <c r="O28" s="15">
+        <v>85.657700000000006</v>
+      </c>
+      <c r="P28" s="15">
+        <v>-69.996200000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -1848,10 +2158,20 @@
       <c r="L29" s="6">
         <v>8</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="M29" s="14">
+        <v>151.0453</v>
+      </c>
+      <c r="N29" s="15">
+        <v>-26.142900000000001</v>
+      </c>
+      <c r="O29" s="15">
+        <v>92.291700000000006</v>
+      </c>
+      <c r="P29" s="15">
+        <v>-201.5461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
@@ -1888,10 +2208,20 @@
       <c r="L30" s="6">
         <v>8</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="M30" s="14">
+        <v>-29.259</v>
+      </c>
+      <c r="N30" s="15">
+        <v>28.069600000000001</v>
+      </c>
+      <c r="O30" s="15">
+        <v>-33.439500000000002</v>
+      </c>
+      <c r="P30" s="15">
+        <v>25.9894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="7" t="s">
         <v>63</v>
       </c>
@@ -1928,10 +2258,20 @@
       <c r="L31" s="6">
         <v>15</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="M31" s="14">
+        <v>29.5</v>
+      </c>
+      <c r="N31" s="15">
+        <v>37.916699999999999</v>
+      </c>
+      <c r="O31" s="15">
+        <v>-30.087299999999999</v>
+      </c>
+      <c r="P31" s="15">
+        <v>29.289100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -1968,10 +2308,20 @@
       <c r="L32" s="6">
         <v>16</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="M32" s="14">
+        <v>150.6309</v>
+      </c>
+      <c r="N32" s="15">
+        <v>37.996499999999997</v>
+      </c>
+      <c r="O32" s="15">
+        <v>-30.474299999999999</v>
+      </c>
+      <c r="P32" s="15">
+        <v>-30.160900000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -2008,10 +2358,20 @@
       <c r="L33" s="6">
         <v>24</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="M33" s="14">
+        <v>53.133899999999997</v>
+      </c>
+      <c r="N33" s="15">
+        <v>25.251799999999999</v>
+      </c>
+      <c r="O33" s="15">
+        <v>103.43470000000001</v>
+      </c>
+      <c r="P33" s="15">
+        <v>-128.9023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -2048,10 +2408,20 @@
       <c r="L34" s="6">
         <v>20</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="M34" s="14">
+        <v>129.68559999999999</v>
+      </c>
+      <c r="N34" s="15">
+        <v>-258.7765</v>
+      </c>
+      <c r="O34" s="15">
+        <v>108.6322</v>
+      </c>
+      <c r="P34" s="15">
+        <v>-259.00760000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="7" t="s">
         <v>64</v>
       </c>
@@ -2088,10 +2458,20 @@
       <c r="L35" s="6">
         <v>21</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="M35" s="14">
+        <v>12.7026</v>
+      </c>
+      <c r="N35" s="15">
+        <v>-79.249099999999999</v>
+      </c>
+      <c r="O35" s="15">
+        <v>27.747800000000002</v>
+      </c>
+      <c r="P35" s="15">
+        <v>15.107799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
         <v>64</v>
       </c>
@@ -2128,10 +2508,20 @@
       <c r="L36" s="6">
         <v>27</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="M36" s="14">
+        <v>146.5421</v>
+      </c>
+      <c r="N36" s="15">
+        <v>-89.907300000000006</v>
+      </c>
+      <c r="O36" s="15">
+        <v>105.8098</v>
+      </c>
+      <c r="P36" s="15">
+        <v>103.375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
@@ -2168,10 +2558,20 @@
       <c r="L37" s="6">
         <v>23</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="M37" s="14">
+        <v>38.780900000000003</v>
+      </c>
+      <c r="N37" s="15">
+        <v>81.090900000000005</v>
+      </c>
+      <c r="O37" s="15">
+        <v>23.717400000000001</v>
+      </c>
+      <c r="P37" s="15">
+        <v>90.737399999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
         <v>64</v>
       </c>
@@ -2208,10 +2608,20 @@
       <c r="L38" s="6">
         <v>13</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="M38" s="14">
+        <v>68.265600000000006</v>
+      </c>
+      <c r="N38" s="15">
+        <v>66.432599999999994</v>
+      </c>
+      <c r="O38" s="15">
+        <v>-65.304299999999998</v>
+      </c>
+      <c r="P38" s="15">
+        <v>-17.329699999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
@@ -2248,10 +2658,20 @@
       <c r="L39" s="6">
         <v>16</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="M39" s="14">
+        <v>42.590600000000002</v>
+      </c>
+      <c r="N39" s="15">
+        <v>-69.5565</v>
+      </c>
+      <c r="O39" s="15">
+        <v>-31.2944</v>
+      </c>
+      <c r="P39" s="15">
+        <v>-37.738799999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="7" t="s">
         <v>64</v>
       </c>
@@ -2288,8 +2708,20 @@
       <c r="L40" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="M40" s="14">
+        <v>112.6087</v>
+      </c>
+      <c r="N40" s="15">
+        <v>68.304299999999998</v>
+      </c>
+      <c r="O40" s="15">
+        <v>122.06059999999999</v>
+      </c>
+      <c r="P40" s="15">
+        <v>165.16480000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="7" t="s">
         <v>64</v>
       </c>
@@ -2326,8 +2758,20 @@
       <c r="L41" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="M41" s="14">
+        <v>47.94</v>
+      </c>
+      <c r="N41" s="15">
+        <v>-28.834299999999999</v>
+      </c>
+      <c r="O41" s="15">
+        <v>-82.657600000000002</v>
+      </c>
+      <c r="P41" s="15">
+        <v>-48.083300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="7" t="s">
         <v>64</v>
       </c>
@@ -2364,8 +2808,20 @@
       <c r="L42" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="M42" s="14">
+        <v>-116.681</v>
+      </c>
+      <c r="N42" s="15">
+        <v>1179.8737000000001</v>
+      </c>
+      <c r="O42" s="15">
+        <v>-113.151</v>
+      </c>
+      <c r="P42" s="15">
+        <v>-239.471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="7" t="s">
         <v>64</v>
       </c>
@@ -2402,8 +2858,20 @@
       <c r="L43" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="15">
+      <c r="M43" s="14">
+        <v>-145.75540000000001</v>
+      </c>
+      <c r="N43" s="15">
+        <v>-88.041700000000006</v>
+      </c>
+      <c r="O43" s="15">
+        <v>150.5035</v>
+      </c>
+      <c r="P43" s="15">
+        <v>-162.17760000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15">
       <c r="A44" s="7" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2908,20 @@
       <c r="L44" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="15">
+      <c r="M44" s="14">
+        <v>105.4584</v>
+      </c>
+      <c r="N44" s="15">
+        <v>-64.541600000000003</v>
+      </c>
+      <c r="O44" s="15">
+        <v>352.57150000000001</v>
+      </c>
+      <c r="P44" s="15">
+        <v>-198.62970000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15">
       <c r="A45" s="7" t="s">
         <v>65</v>
       </c>
@@ -2478,8 +2958,20 @@
       <c r="L45" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="15">
+      <c r="M45" s="14">
+        <v>166.43379999999999</v>
+      </c>
+      <c r="N45" s="15">
+        <v>-220.95240000000001</v>
+      </c>
+      <c r="O45" s="15">
+        <v>319.02780000000001</v>
+      </c>
+      <c r="P45" s="15">
+        <v>-214.7861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15">
       <c r="A46" s="7" t="s">
         <v>65</v>
       </c>
@@ -2516,8 +3008,20 @@
       <c r="L46" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="15">
+      <c r="M46" s="14">
+        <v>155.17830000000001</v>
+      </c>
+      <c r="N46" s="15">
+        <v>-1.8217000000000001</v>
+      </c>
+      <c r="O46" s="15">
+        <v>121.9791</v>
+      </c>
+      <c r="P46" s="15">
+        <v>-255.87100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15">
       <c r="A47" s="7" t="s">
         <v>65</v>
       </c>
@@ -2554,8 +3058,20 @@
       <c r="L47" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="15">
+      <c r="M47" s="14">
+        <v>41.395000000000003</v>
+      </c>
+      <c r="N47" s="15">
+        <v>105.4783</v>
+      </c>
+      <c r="O47" s="15">
+        <v>275.24340000000001</v>
+      </c>
+      <c r="P47" s="15">
+        <v>30.719000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
@@ -2592,8 +3108,20 @@
       <c r="L48" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15">
+      <c r="M48" s="14">
+        <v>115.833</v>
+      </c>
+      <c r="N48" s="15">
+        <v>-252.8904</v>
+      </c>
+      <c r="O48" s="15">
+        <v>-187.10579999999999</v>
+      </c>
+      <c r="P48" s="15">
+        <v>345.20589999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15">
       <c r="A49" s="7" t="s">
         <v>65</v>
       </c>
@@ -2629,6 +3157,18 @@
       </c>
       <c r="L49" s="6">
         <v>14</v>
+      </c>
+      <c r="M49" s="14">
+        <v>70.9405</v>
+      </c>
+      <c r="N49" s="15">
+        <v>-158.68530000000001</v>
+      </c>
+      <c r="O49" s="15">
+        <v>68.125</v>
+      </c>
+      <c r="P49" s="15">
+        <v>-153.54159999999999</v>
       </c>
     </row>
   </sheetData>

--- a/lastDay/merged_trh.xlsx
+++ b/lastDay/merged_trh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mpxuann\HouCanBei\lastDay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3849894-7165-43DD-BEC3-088B525CD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED409E-A5AB-492E-821F-F451FB7A9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3D492D7E-110E-4089-AB55-3ED6CA0E0227}"/>
   </bookViews>
@@ -269,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,8 +314,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +332,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF319B62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CDDFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDCC4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,11 +403,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F717E-7A7C-4EC1-A6EC-9C7CD085ADAE}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -719,6 +741,10 @@
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -809,16 +835,16 @@
         <v>6</v>
       </c>
       <c r="M2" s="14">
-        <v>172.85499999999999</v>
+        <v>8.6811000000000007</v>
       </c>
       <c r="N2" s="15">
-        <v>-229.91309999999999</v>
+        <v>-65.739199999999997</v>
       </c>
       <c r="O2" s="15">
-        <v>285.55709999999999</v>
+        <v>56.4071</v>
       </c>
       <c r="P2" s="15">
-        <v>-360.94069999999999</v>
+        <v>-131.79069999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -859,16 +885,16 @@
         <v>4</v>
       </c>
       <c r="M3" s="14">
-        <v>65.694400000000002</v>
+        <v>179.77629999999999</v>
       </c>
       <c r="N3" s="15">
-        <v>183.0078</v>
+        <v>68.925899999999999</v>
       </c>
       <c r="O3" s="15">
-        <v>154.4444</v>
+        <v>16.894400000000001</v>
       </c>
       <c r="P3" s="15">
-        <v>-86.264300000000006</v>
+        <v>51.285699999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -909,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="M4" s="14">
-        <v>85.873000000000005</v>
+        <v>48.699100000000001</v>
       </c>
       <c r="N4" s="15">
-        <v>0.48909999999999998</v>
+        <v>37.662999999999997</v>
       </c>
       <c r="O4" s="15">
-        <v>176.7876</v>
+        <v>56.840299999999999</v>
       </c>
       <c r="P4" s="15">
-        <v>-75.707800000000006</v>
+        <v>44.2395</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -959,16 +985,16 @@
         <v>9</v>
       </c>
       <c r="M5" s="14">
-        <v>-47.4636</v>
+        <v>-3.9468999999999999</v>
       </c>
       <c r="N5" s="15">
-        <v>-67.387600000000006</v>
+        <v>-110.90430000000001</v>
       </c>
       <c r="O5" s="15">
-        <v>-31.753799999999998</v>
+        <v>-14.8055</v>
       </c>
       <c r="P5" s="15">
-        <v>-65.020899999999997</v>
+        <v>-81.969200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1009,16 +1035,16 @@
         <v>5</v>
       </c>
       <c r="M6" s="14">
-        <v>66.877600000000001</v>
+        <v>19.304099999999998</v>
       </c>
       <c r="N6" s="15">
-        <v>-80.349800000000002</v>
+        <v>-32.776299999999999</v>
       </c>
       <c r="O6" s="15">
-        <v>68.988600000000005</v>
+        <v>23.159400000000002</v>
       </c>
       <c r="P6" s="15">
-        <v>-117.3601</v>
+        <v>-71.530900000000003</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1059,16 +1085,16 @@
         <v>10</v>
       </c>
       <c r="M7" s="14">
-        <v>143.49639999999999</v>
+        <v>64.210599999999999</v>
       </c>
       <c r="N7" s="15">
-        <v>19.391500000000001</v>
+        <v>98.677300000000002</v>
       </c>
       <c r="O7" s="15">
-        <v>54.794800000000002</v>
+        <v>51.968699999999998</v>
       </c>
       <c r="P7" s="15">
-        <v>-11.6713</v>
+        <v>-8.8452000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1109,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="M8" s="14">
-        <v>118.13639999999999</v>
+        <v>58.469700000000003</v>
       </c>
       <c r="N8" s="15">
-        <v>-151.2319</v>
+        <v>-91.565200000000004</v>
       </c>
       <c r="O8" s="15">
-        <v>105.3811</v>
+        <v>25.9633</v>
       </c>
       <c r="P8" s="15">
-        <v>-81.390500000000003</v>
+        <v>-1.9726999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1159,16 +1185,16 @@
         <v>5</v>
       </c>
       <c r="M9" s="14">
-        <v>107.64230000000001</v>
+        <v>26.978000000000002</v>
       </c>
       <c r="N9" s="15">
-        <v>-39.406599999999997</v>
+        <v>41.2577</v>
       </c>
       <c r="O9" s="15">
-        <v>86.53</v>
+        <v>56.411499999999997</v>
       </c>
       <c r="P9" s="15">
-        <v>-58.902099999999997</v>
+        <v>-28.7836</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1209,16 +1235,16 @@
         <v>8</v>
       </c>
       <c r="M10" s="14">
-        <v>82.7971</v>
+        <v>34.188400000000001</v>
       </c>
       <c r="N10" s="15">
-        <v>-70.27</v>
+        <v>-21.661300000000001</v>
       </c>
       <c r="O10" s="15">
-        <v>60.6678</v>
+        <v>58.3521</v>
       </c>
       <c r="P10" s="15">
-        <v>-33.613399999999999</v>
+        <v>-31.297699999999999</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1259,16 +1285,16 @@
         <v>6</v>
       </c>
       <c r="M11" s="14">
-        <v>-170.48150000000001</v>
+        <v>49.84</v>
       </c>
       <c r="N11" s="15">
-        <v>130.72890000000001</v>
+        <v>-89.592600000000004</v>
       </c>
       <c r="O11" s="15">
-        <v>79.217399999999998</v>
+        <v>179.53739999999999</v>
       </c>
       <c r="P11" s="15">
-        <v>41.410899999999998</v>
+        <v>-58.909100000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1308,17 +1334,17 @@
       <c r="L12" s="6">
         <v>32</v>
       </c>
-      <c r="M12" s="14">
-        <v>243</v>
+      <c r="M12" s="15">
+        <v>-19.958300000000001</v>
       </c>
       <c r="N12" s="15">
-        <v>-3.1665999999999999</v>
+        <v>259.79169999999999</v>
       </c>
       <c r="O12" s="15">
-        <v>44.265799999999999</v>
+        <v>199.68879999999999</v>
       </c>
       <c r="P12" s="15">
-        <v>-306.49349999999998</v>
+        <v>-461.91649999999998</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1358,17 +1384,17 @@
       <c r="L13" s="6">
         <v>23</v>
       </c>
-      <c r="M13" s="14">
-        <v>155.1429</v>
+      <c r="M13" s="15">
+        <v>160.34289999999999</v>
       </c>
       <c r="N13" s="15">
-        <v>-135.19290000000001</v>
+        <v>-140.3929</v>
       </c>
       <c r="O13" s="15">
-        <v>-223.3706</v>
+        <v>-35.562899999999999</v>
       </c>
       <c r="P13" s="15">
-        <v>104.52800000000001</v>
+        <v>-83.279700000000005</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1408,17 +1434,17 @@
       <c r="L14" s="6">
         <v>22</v>
       </c>
-      <c r="M14" s="14">
-        <v>54.495699999999999</v>
+      <c r="M14" s="15">
+        <v>66.055700000000002</v>
       </c>
       <c r="N14" s="15">
-        <v>104.7513</v>
+        <v>93.191299999999998</v>
       </c>
       <c r="O14" s="15">
-        <v>-99.312200000000004</v>
+        <v>-117.7332</v>
       </c>
       <c r="P14" s="15">
-        <v>-61.6297</v>
+        <v>-43.2087</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1458,17 +1484,17 @@
       <c r="L15" s="6">
         <v>22</v>
       </c>
-      <c r="M15" s="14">
-        <v>30</v>
+      <c r="M15" s="15">
+        <v>22.5</v>
       </c>
       <c r="N15" s="15">
-        <v>43.5</v>
+        <v>51</v>
       </c>
       <c r="O15" s="15">
-        <v>73.573899999999995</v>
+        <v>115.2696</v>
       </c>
       <c r="P15" s="15">
-        <v>14.7096</v>
+        <v>-26.9861</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1508,17 +1534,17 @@
       <c r="L16" s="6">
         <v>25</v>
       </c>
-      <c r="M16" s="14">
-        <v>128.52099999999999</v>
+      <c r="M16" s="15">
+        <v>57.867199999999997</v>
       </c>
       <c r="N16" s="15">
-        <v>-57.769199999999998</v>
+        <v>12.884600000000001</v>
       </c>
       <c r="O16" s="15">
-        <v>48.8</v>
+        <v>64.756500000000003</v>
       </c>
       <c r="P16" s="15">
-        <v>31.636500000000002</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1558,17 +1584,17 @@
       <c r="L17" s="6">
         <v>10</v>
       </c>
-      <c r="M17" s="14">
-        <v>155.09520000000001</v>
+      <c r="M17" s="15">
+        <v>10.947100000000001</v>
       </c>
       <c r="N17" s="15">
-        <v>-65.148099999999999</v>
+        <v>79</v>
       </c>
       <c r="O17" s="15">
-        <v>-15.3026</v>
+        <v>55.784300000000002</v>
       </c>
       <c r="P17" s="15">
-        <v>18.664300000000001</v>
+        <v>-52.422600000000003</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1608,17 +1634,17 @@
       <c r="L18" s="6">
         <v>23</v>
       </c>
-      <c r="M18" s="14">
-        <v>318.0539</v>
+      <c r="M18" s="15">
+        <v>192.74959999999999</v>
       </c>
       <c r="N18" s="15">
-        <v>140.02959999999999</v>
+        <v>265.33390000000003</v>
       </c>
       <c r="O18" s="15">
-        <v>196.65729999999999</v>
+        <v>-50.2273</v>
       </c>
       <c r="P18" s="15">
-        <v>-139.22730000000001</v>
+        <v>107.65730000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1658,17 +1684,17 @@
       <c r="L19" s="6">
         <v>7</v>
       </c>
-      <c r="M19" s="14">
-        <v>191.887</v>
+      <c r="M19" s="15">
+        <v>33.626100000000001</v>
       </c>
       <c r="N19" s="15">
-        <v>-141.85390000000001</v>
+        <v>16.407</v>
       </c>
       <c r="O19" s="15">
-        <v>273.81119999999999</v>
+        <v>25.174900000000001</v>
       </c>
       <c r="P19" s="15">
-        <v>-106.1713</v>
+        <v>142.465</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1708,17 +1734,17 @@
       <c r="L20" s="6">
         <v>9</v>
       </c>
-      <c r="M20" s="14">
-        <v>-109.8741</v>
+      <c r="M20" s="15">
+        <v>-38.555900000000001</v>
       </c>
       <c r="N20" s="15">
-        <v>-263.94049999999999</v>
+        <v>-335.25869999999998</v>
       </c>
       <c r="O20" s="15">
-        <v>272.4957</v>
+        <v>93.843500000000006</v>
       </c>
       <c r="P20" s="15">
-        <v>-101.3565</v>
+        <v>77.295699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1758,17 +1784,17 @@
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="14">
-        <v>6.3068999999999997</v>
+      <c r="M21" s="15">
+        <v>-73.248599999999996</v>
       </c>
       <c r="N21" s="15">
-        <v>-56.820099999999996</v>
+        <v>22.735399999999998</v>
       </c>
       <c r="O21" s="15">
-        <v>-12.7357</v>
+        <v>25.814299999999999</v>
       </c>
       <c r="P21" s="15">
-        <v>-30.185700000000001</v>
+        <v>-68.735699999999994</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1808,17 +1834,17 @@
       <c r="L22" s="6">
         <v>9</v>
       </c>
-      <c r="M22" s="14">
-        <v>5.4814999999999996</v>
+      <c r="M22" s="15">
+        <v>-38.947099999999999</v>
       </c>
       <c r="N22" s="15">
-        <v>-107.46559999999999</v>
+        <v>-63.036999999999999</v>
       </c>
       <c r="O22" s="15">
-        <v>199.8365</v>
+        <v>26.140899999999998</v>
       </c>
       <c r="P22" s="15">
-        <v>-31.499099999999999</v>
+        <v>142.19649999999999</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1858,17 +1884,17 @@
       <c r="L23" s="6">
         <v>6</v>
       </c>
-      <c r="M23" s="14">
-        <v>176.12139999999999</v>
+      <c r="M23" s="15">
+        <v>27.621400000000001</v>
       </c>
       <c r="N23" s="15">
-        <v>-164.2</v>
+        <v>-15.7</v>
       </c>
       <c r="O23" s="15">
-        <v>-15.7378</v>
+        <v>62.444099999999999</v>
       </c>
       <c r="P23" s="15">
-        <v>89.867199999999997</v>
+        <v>11.6853</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1908,17 +1934,17 @@
       <c r="L24" s="6">
         <v>13</v>
       </c>
-      <c r="M24" s="14">
-        <v>106.1776</v>
-      </c>
-      <c r="N24" s="15">
-        <v>46.833300000000001</v>
+      <c r="M24" s="15">
+        <v>44.094200000000001</v>
+      </c>
+      <c r="N24" s="16">
+        <v>108.91670000000001</v>
       </c>
       <c r="O24" s="15">
-        <v>75.668499999999995</v>
+        <v>75.236199999999997</v>
       </c>
       <c r="P24" s="15">
-        <v>47.474299999999999</v>
+        <v>47.906599999999997</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1958,17 +1984,17 @@
       <c r="L25" s="6">
         <v>13</v>
       </c>
-      <c r="M25" s="14">
-        <v>352.94319999999999</v>
-      </c>
-      <c r="N25" s="15">
-        <v>-119.7409</v>
+      <c r="M25" s="15">
+        <v>180.8382</v>
+      </c>
+      <c r="N25" s="16">
+        <v>52.364100000000001</v>
       </c>
       <c r="O25" s="15">
-        <v>173.42959999999999</v>
+        <v>-64.2971</v>
       </c>
       <c r="P25" s="15">
-        <v>-354.81889999999999</v>
+        <v>-117.09220000000001</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2008,17 +2034,17 @@
       <c r="L26" s="6">
         <v>9</v>
       </c>
-      <c r="M26" s="14">
-        <v>77.247600000000006</v>
-      </c>
-      <c r="N26" s="15">
-        <v>-71.662899999999993</v>
+      <c r="M26" s="15">
+        <v>-34.942900000000002</v>
+      </c>
+      <c r="N26" s="16">
+        <v>40.5276</v>
       </c>
       <c r="O26" s="15">
-        <v>65.73</v>
+        <v>-10.2265</v>
       </c>
       <c r="P26" s="15">
-        <v>-94.994799999999998</v>
+        <v>-19.0383</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2058,17 +2084,17 @@
       <c r="L27" s="6">
         <v>9</v>
       </c>
-      <c r="M27" s="14">
-        <v>39.708300000000001</v>
-      </c>
-      <c r="N27" s="15">
-        <v>16.596</v>
+      <c r="M27" s="15">
+        <v>-19.195699999999999</v>
+      </c>
+      <c r="N27" s="16">
+        <v>75.5</v>
       </c>
       <c r="O27" s="15">
-        <v>79.188400000000001</v>
+        <v>44.347799999999999</v>
       </c>
       <c r="P27" s="15">
-        <v>38.409399999999998</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2108,17 +2134,17 @@
       <c r="L28" s="6">
         <v>8</v>
       </c>
-      <c r="M28" s="14">
-        <v>149.42230000000001</v>
-      </c>
-      <c r="N28" s="15">
-        <v>-34.302599999999998</v>
+      <c r="M28" s="15">
+        <v>-78.159700000000001</v>
+      </c>
+      <c r="N28" s="16">
+        <v>193.27940000000001</v>
       </c>
       <c r="O28" s="15">
-        <v>85.657700000000006</v>
+        <v>9.0038</v>
       </c>
       <c r="P28" s="15">
-        <v>-69.996200000000002</v>
+        <v>6.6577000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2158,17 +2184,17 @@
       <c r="L29" s="6">
         <v>8</v>
       </c>
-      <c r="M29" s="14">
-        <v>151.0453</v>
-      </c>
-      <c r="N29" s="15">
-        <v>-26.142900000000001</v>
+      <c r="M29" s="15">
+        <v>-18.1846</v>
+      </c>
+      <c r="N29" s="16">
+        <v>143.08699999999999</v>
       </c>
       <c r="O29" s="15">
-        <v>92.291700000000006</v>
+        <v>13.78</v>
       </c>
       <c r="P29" s="15">
-        <v>-201.5461</v>
+        <v>-123.03440000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2208,17 +2234,17 @@
       <c r="L30" s="6">
         <v>8</v>
       </c>
-      <c r="M30" s="14">
-        <v>-29.259</v>
-      </c>
-      <c r="N30" s="15">
-        <v>28.069600000000001</v>
+      <c r="M30" s="15">
+        <v>-8.3112999999999992</v>
+      </c>
+      <c r="N30" s="16">
+        <v>7.1219000000000001</v>
       </c>
       <c r="O30" s="15">
-        <v>-33.439500000000002</v>
+        <v>14.417999999999999</v>
       </c>
       <c r="P30" s="15">
-        <v>25.9894</v>
+        <v>-21.868099999999998</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2258,17 +2284,17 @@
       <c r="L31" s="6">
         <v>15</v>
       </c>
-      <c r="M31" s="14">
-        <v>29.5</v>
-      </c>
-      <c r="N31" s="15">
-        <v>37.916699999999999</v>
+      <c r="M31" s="15">
+        <v>49.25</v>
+      </c>
+      <c r="N31" s="16">
+        <v>18.166699999999999</v>
       </c>
       <c r="O31" s="15">
-        <v>-30.087299999999999</v>
+        <v>1.1527000000000001</v>
       </c>
       <c r="P31" s="15">
-        <v>29.289100000000001</v>
+        <v>-1.9509000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2308,17 +2334,17 @@
       <c r="L32" s="6">
         <v>16</v>
       </c>
-      <c r="M32" s="14">
-        <v>150.6309</v>
-      </c>
-      <c r="N32" s="15">
-        <v>37.996499999999997</v>
+      <c r="M32" s="15">
+        <v>29.360099999999999</v>
+      </c>
+      <c r="N32" s="16">
+        <v>159.26730000000001</v>
       </c>
       <c r="O32" s="15">
-        <v>-30.474299999999999</v>
+        <v>28.694500000000001</v>
       </c>
       <c r="P32" s="15">
-        <v>-30.160900000000002</v>
+        <v>-89.329700000000003</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2358,17 +2384,17 @@
       <c r="L33" s="6">
         <v>24</v>
       </c>
-      <c r="M33" s="14">
-        <v>53.133899999999997</v>
+      <c r="M33" s="15">
+        <v>-38.617800000000003</v>
       </c>
       <c r="N33" s="15">
-        <v>25.251799999999999</v>
+        <v>117.0035</v>
       </c>
       <c r="O33" s="15">
-        <v>103.43470000000001</v>
+        <v>3.4135</v>
       </c>
       <c r="P33" s="15">
-        <v>-128.9023</v>
+        <v>-28.8811</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2408,17 +2434,17 @@
       <c r="L34" s="6">
         <v>20</v>
       </c>
-      <c r="M34" s="14">
-        <v>129.68559999999999</v>
+      <c r="M34" s="15">
+        <v>-35.231000000000002</v>
       </c>
       <c r="N34" s="15">
-        <v>-258.7765</v>
+        <v>-93.859899999999996</v>
       </c>
       <c r="O34" s="15">
-        <v>108.6322</v>
+        <v>68.757199999999997</v>
       </c>
       <c r="P34" s="15">
-        <v>-259.00760000000002</v>
+        <v>-219.1326</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2458,17 +2484,17 @@
       <c r="L35" s="6">
         <v>21</v>
       </c>
-      <c r="M35" s="14">
-        <v>12.7026</v>
+      <c r="M35" s="15">
+        <v>-58.057400000000001</v>
       </c>
       <c r="N35" s="15">
-        <v>-79.249099999999999</v>
+        <v>-8.4891000000000005</v>
       </c>
       <c r="O35" s="15">
-        <v>27.747800000000002</v>
+        <v>17.107800000000001</v>
       </c>
       <c r="P35" s="15">
-        <v>15.107799999999999</v>
+        <v>25.747800000000002</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2508,17 +2534,17 @@
       <c r="L36" s="6">
         <v>27</v>
       </c>
-      <c r="M36" s="14">
-        <v>146.5421</v>
+      <c r="M36" s="15">
+        <v>84.938999999999993</v>
       </c>
       <c r="N36" s="15">
-        <v>-89.907300000000006</v>
+        <v>-28.304200000000002</v>
       </c>
       <c r="O36" s="15">
-        <v>105.8098</v>
+        <v>137.58330000000001</v>
       </c>
       <c r="P36" s="15">
-        <v>103.375</v>
+        <v>71.601500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2558,17 +2584,17 @@
       <c r="L37" s="6">
         <v>23</v>
       </c>
-      <c r="M37" s="14">
-        <v>38.780900000000003</v>
+      <c r="M37" s="15">
+        <v>83.760900000000007</v>
       </c>
       <c r="N37" s="15">
-        <v>81.090900000000005</v>
+        <v>36.110900000000001</v>
       </c>
       <c r="O37" s="15">
-        <v>23.717400000000001</v>
+        <v>134.91309999999999</v>
       </c>
       <c r="P37" s="15">
-        <v>90.737399999999994</v>
+        <v>-20.458300000000001</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2608,17 +2634,17 @@
       <c r="L38" s="6">
         <v>13</v>
       </c>
-      <c r="M38" s="14">
-        <v>68.265600000000006</v>
+      <c r="M38" s="15">
+        <v>-52.508600000000001</v>
       </c>
       <c r="N38" s="15">
-        <v>66.432599999999994</v>
+        <v>187.20679999999999</v>
       </c>
       <c r="O38" s="15">
-        <v>-65.304299999999998</v>
+        <v>-155.9819</v>
       </c>
       <c r="P38" s="15">
-        <v>-17.329699999999999</v>
+        <v>73.347899999999996</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2658,17 +2684,17 @@
       <c r="L39" s="6">
         <v>16</v>
       </c>
-      <c r="M39" s="14">
-        <v>42.590600000000002</v>
+      <c r="M39" s="15">
+        <v>89.573899999999995</v>
       </c>
       <c r="N39" s="15">
-        <v>-69.5565</v>
+        <v>-116.5398</v>
       </c>
       <c r="O39" s="15">
-        <v>-31.2944</v>
+        <v>-22.812799999999999</v>
       </c>
       <c r="P39" s="15">
-        <v>-37.738799999999998</v>
+        <v>-46.220399999999998</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2708,17 +2734,17 @@
       <c r="L40" s="6">
         <v>17</v>
       </c>
-      <c r="M40" s="14">
-        <v>112.6087</v>
+      <c r="M40" s="15">
+        <v>83.130399999999995</v>
       </c>
       <c r="N40" s="15">
-        <v>68.304299999999998</v>
+        <v>97.782600000000002</v>
       </c>
       <c r="O40" s="15">
-        <v>122.06059999999999</v>
+        <v>245.78980000000001</v>
       </c>
       <c r="P40" s="15">
-        <v>165.16480000000001</v>
+        <v>41.435600000000001</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2758,17 +2784,17 @@
       <c r="L41" s="6">
         <v>17</v>
       </c>
-      <c r="M41" s="14">
-        <v>47.94</v>
+      <c r="M41" s="15">
+        <v>51.725700000000003</v>
       </c>
       <c r="N41" s="15">
-        <v>-28.834299999999999</v>
+        <v>-32.619999999999997</v>
       </c>
       <c r="O41" s="15">
-        <v>-82.657600000000002</v>
+        <v>-77.25</v>
       </c>
       <c r="P41" s="15">
-        <v>-48.083300000000001</v>
+        <v>-53.490900000000003</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2808,17 +2834,17 @@
       <c r="L42" s="6">
         <v>18</v>
       </c>
-      <c r="M42" s="14">
-        <v>-116.681</v>
+      <c r="M42" s="15">
+        <v>765.62400000000002</v>
       </c>
       <c r="N42" s="15">
-        <v>1179.8737000000001</v>
+        <v>297.56869999999998</v>
       </c>
       <c r="O42" s="15">
-        <v>-113.151</v>
+        <v>-242.91900000000001</v>
       </c>
       <c r="P42" s="15">
-        <v>-239.471</v>
+        <v>-109.703</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2858,17 +2884,17 @@
       <c r="L43" s="6">
         <v>18</v>
       </c>
-      <c r="M43" s="14">
-        <v>-145.75540000000001</v>
+      <c r="M43" s="15">
+        <v>-139.4221</v>
       </c>
       <c r="N43" s="15">
-        <v>-88.041700000000006</v>
+        <v>-94.375</v>
       </c>
       <c r="O43" s="15">
-        <v>150.5035</v>
+        <v>-72.293000000000006</v>
       </c>
       <c r="P43" s="15">
-        <v>-162.17760000000001</v>
+        <v>60.618899999999996</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15">
@@ -2908,17 +2934,17 @@
       <c r="L44" s="6">
         <v>31</v>
       </c>
-      <c r="M44" s="14">
-        <v>105.4584</v>
+      <c r="M44" s="15">
+        <v>108.7084</v>
       </c>
       <c r="N44" s="15">
-        <v>-64.541600000000003</v>
+        <v>-67.791600000000003</v>
       </c>
       <c r="O44" s="15">
-        <v>352.57150000000001</v>
+        <v>-57.058199999999999</v>
       </c>
       <c r="P44" s="15">
-        <v>-198.62970000000001</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15">
@@ -2958,17 +2984,17 @@
       <c r="L45" s="6">
         <v>34</v>
       </c>
-      <c r="M45" s="14">
-        <v>166.43379999999999</v>
+      <c r="M45" s="15">
+        <v>92.862399999999994</v>
       </c>
       <c r="N45" s="15">
-        <v>-220.95240000000001</v>
+        <v>-147.381</v>
       </c>
       <c r="O45" s="15">
-        <v>319.02780000000001</v>
+        <v>195.85390000000001</v>
       </c>
       <c r="P45" s="15">
-        <v>-214.7861</v>
+        <v>-91.612200000000001</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15">
@@ -3008,17 +3034,17 @@
       <c r="L46" s="6">
         <v>29</v>
       </c>
-      <c r="M46" s="14">
-        <v>155.17830000000001</v>
+      <c r="M46" s="15">
+        <v>212.67830000000001</v>
       </c>
       <c r="N46" s="15">
-        <v>-1.8217000000000001</v>
+        <v>-59.3217</v>
       </c>
       <c r="O46" s="15">
-        <v>121.9791</v>
+        <v>91.259100000000004</v>
       </c>
       <c r="P46" s="15">
-        <v>-255.87100000000001</v>
+        <v>-225.15100000000001</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15">
@@ -3058,17 +3084,17 @@
       <c r="L47" s="6">
         <v>8</v>
       </c>
-      <c r="M47" s="14">
-        <v>41.395000000000003</v>
+      <c r="M47" s="15">
+        <v>-216.565</v>
       </c>
       <c r="N47" s="15">
-        <v>105.4783</v>
+        <v>363.43830000000003</v>
       </c>
       <c r="O47" s="15">
-        <v>275.24340000000001</v>
+        <v>334.24290000000002</v>
       </c>
       <c r="P47" s="15">
-        <v>30.719000000000001</v>
+        <v>-28.2805</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15">
@@ -3108,17 +3134,17 @@
       <c r="L48" s="6">
         <v>16</v>
       </c>
-      <c r="M48" s="14">
-        <v>115.833</v>
+      <c r="M48" s="15">
+        <v>25.7896</v>
       </c>
       <c r="N48" s="15">
-        <v>-252.8904</v>
+        <v>-162.84700000000001</v>
       </c>
       <c r="O48" s="15">
-        <v>-187.10579999999999</v>
+        <v>124.6345</v>
       </c>
       <c r="P48" s="15">
-        <v>345.20589999999999</v>
+        <v>33.465600000000002</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15">
@@ -3158,17 +3184,17 @@
       <c r="L49" s="6">
         <v>14</v>
       </c>
-      <c r="M49" s="14">
-        <v>70.9405</v>
+      <c r="M49" s="15">
+        <v>120.1328</v>
       </c>
       <c r="N49" s="15">
-        <v>-158.68530000000001</v>
+        <v>-207.8776</v>
       </c>
       <c r="O49" s="15">
-        <v>68.125</v>
+        <v>-139.33330000000001</v>
       </c>
       <c r="P49" s="15">
-        <v>-153.54159999999999</v>
+        <v>53.916699999999999</v>
       </c>
     </row>
   </sheetData>
